--- a/requirements/RulesSummary.xlsx
+++ b/requirements/RulesSummary.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mail\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\mail\Documents\GitHub\workoutv2\requirements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{670E38A0-153C-4EE3-88E5-1EE5D5522AC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B38EC78-483A-4535-A127-618E3E58B3CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="975" yWindow="795" windowWidth="27210" windowHeight="14760" xr2:uid="{CCFEB73A-D239-4AC4-8C5F-F7ED7600DE3F}"/>
+    <workbookView xWindow="975" yWindow="795" windowWidth="27210" windowHeight="14760" activeTab="1" xr2:uid="{CCFEB73A-D239-4AC4-8C5F-F7ED7600DE3F}"/>
   </bookViews>
   <sheets>
-    <sheet name="rules" sheetId="2" r:id="rId1"/>
-    <sheet name="samples" sheetId="1" r:id="rId2"/>
+    <sheet name="row legend" sheetId="3" r:id="rId1"/>
+    <sheet name="rules" sheetId="2" r:id="rId2"/>
+    <sheet name="samples" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="145">
   <si>
     <t>dailysummary</t>
   </si>
@@ -417,7 +418,61 @@
     <t>TIME</t>
   </si>
   <si>
-    <t>SPECIAL##</t>
+    <t xml:space="preserve">SPECIAL02 </t>
+  </si>
+  <si>
+    <t>Convert to float format "##.#"</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>Extraneous row, ignore</t>
+  </si>
+  <si>
+    <t>Header row</t>
+  </si>
+  <si>
+    <t>Header row with at least one column name correction. Corrected column name will be prefixed with underscore "_", strip the underscore before using the name.</t>
+  </si>
+  <si>
+    <t>Rules</t>
+  </si>
+  <si>
+    <t>Sample data, ignore for any processing, for reference only.</t>
+  </si>
+  <si>
+    <t>Used in this program's date format conversions</t>
+  </si>
+  <si>
+    <t>Integer</t>
+  </si>
+  <si>
+    <t>Do not process data or include in final output</t>
+  </si>
+  <si>
+    <t>Strip non-numeric characters (except decimals) and produce a numeric value</t>
+  </si>
+  <si>
+    <t>Convert as a character value</t>
+  </si>
+  <si>
+    <t>Convert as a time value, military hh:mm</t>
+  </si>
+  <si>
+    <t>Convert "#h #m" duration to float hours value. Example 1h 30m = 1.5</t>
   </si>
 </sst>
 </file>
@@ -501,16 +556,16 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -846,48 +901,53 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43EA19F9-ACD1-4B0D-B73E-AC8CC864175C}">
-  <dimension ref="B3:B15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB327581-AE8F-43B2-9F92-58A31A1F183A}">
+  <dimension ref="B2:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="15" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>125</v>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>129</v>
+      </c>
+      <c r="C6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>130</v>
+      </c>
+      <c r="C8" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>132</v>
+      </c>
+      <c r="C10" t="s">
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -896,11 +956,91 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43EA19F9-ACD1-4B0D-B73E-AC8CC864175C}">
+  <dimension ref="B3:C17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>104</v>
+      </c>
+      <c r="C11" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>125</v>
+      </c>
+      <c r="C13" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>123</v>
+      </c>
+      <c r="C15" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>126</v>
+      </c>
+      <c r="C17" t="s">
+        <v>127</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CEF7671-40B4-4D90-A52F-74F76E6A1BC1}">
   <dimension ref="A1:U57"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1381,226 +1521,226 @@
       <c r="A31" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="8"/>
-      <c r="K31" s="8"/>
-      <c r="L31" s="8"/>
-      <c r="M31" s="8"/>
-      <c r="N31" s="8"/>
-      <c r="O31" s="8"/>
-      <c r="P31" s="8"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="10"/>
+      <c r="M31" s="10"/>
+      <c r="N31" s="10"/>
+      <c r="O31" s="10"/>
+      <c r="P31" s="10"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C32" s="9" t="s">
+      <c r="C32" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D32" s="9" t="s">
+      <c r="D32" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="E32" s="9" t="s">
+      <c r="E32" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="F32" s="9" t="s">
+      <c r="F32" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="G32" s="9" t="s">
+      <c r="G32" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="H32" s="9" t="s">
+      <c r="H32" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="I32" s="9" t="s">
+      <c r="I32" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="J32" s="9" t="s">
+      <c r="J32" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="K32" s="9" t="s">
+      <c r="K32" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="L32" s="9" t="s">
+      <c r="L32" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="M32" s="9" t="s">
+      <c r="M32" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="N32" s="9" t="s">
+      <c r="N32" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="O32" s="9" t="s">
+      <c r="O32" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="P32" s="9" t="s">
+      <c r="P32" s="7" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B33" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C33" s="9" t="s">
+      <c r="B33" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C33" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="9" t="s">
+      <c r="D33" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="E33" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="F33" s="9" t="s">
+      <c r="E33" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F33" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="G33" s="9" t="s">
+      <c r="G33" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="H33" s="9" t="s">
+      <c r="H33" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="I33" s="9" t="s">
+      <c r="I33" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="J33" s="9" t="s">
+      <c r="J33" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="K33" s="9" t="s">
+      <c r="K33" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="L33" s="9" t="s">
+      <c r="L33" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="M33" s="9" t="s">
+      <c r="M33" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="N33" s="9" t="s">
+      <c r="N33" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="O33" s="9" t="s">
+      <c r="O33" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="P33" s="9" t="s">
+      <c r="P33" s="7" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B34" s="9"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="9"/>
-      <c r="J34" s="9"/>
-      <c r="K34" s="9"/>
-      <c r="L34" s="9"/>
-      <c r="M34" s="9"/>
-      <c r="N34" s="9"/>
-      <c r="O34" s="9"/>
-      <c r="P34" s="9"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="7"/>
+      <c r="L34" s="7"/>
+      <c r="M34" s="7"/>
+      <c r="N34" s="7"/>
+      <c r="O34" s="7"/>
+      <c r="P34" s="7"/>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B35" s="9">
+      <c r="B35" s="7">
         <v>1</v>
       </c>
-      <c r="C35" s="9" t="s">
+      <c r="C35" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="D35" s="9" t="s">
+      <c r="D35" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="E35" s="9" t="s">
+      <c r="E35" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="F35" s="9" t="s">
+      <c r="F35" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="G35" s="9" t="s">
+      <c r="G35" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="H35" s="9" t="s">
+      <c r="H35" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="I35" s="9" t="s">
+      <c r="I35" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="J35" s="9" t="s">
+      <c r="J35" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="K35" s="9" t="s">
+      <c r="K35" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="L35" s="9" t="s">
+      <c r="L35" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="M35" s="9" t="s">
+      <c r="M35" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="N35" s="9" t="s">
+      <c r="N35" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="O35" s="9" t="s">
+      <c r="O35" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="P35" s="9" t="s">
+      <c r="P35" s="7" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B36" s="9">
+      <c r="B36" s="7">
         <v>2</v>
       </c>
-      <c r="C36" s="9" t="s">
+      <c r="C36" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="D36" s="9" t="s">
+      <c r="D36" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="E36" s="9" t="s">
+      <c r="E36" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="F36" s="9" t="s">
+      <c r="F36" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="G36" s="9" t="s">
+      <c r="G36" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="H36" s="9" t="s">
+      <c r="H36" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="I36" s="9" t="s">
+      <c r="I36" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="J36" s="9" t="s">
+      <c r="J36" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="K36" s="9" t="s">
+      <c r="K36" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="L36" s="9" t="s">
+      <c r="L36" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="M36" s="9" t="s">
+      <c r="M36" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="N36" s="9" t="s">
+      <c r="N36" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="O36" s="9" t="s">
+      <c r="O36" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="P36" s="9" t="s">
+      <c r="P36" s="7" t="s">
         <v>80</v>
       </c>
     </row>
@@ -1818,19 +1958,19 @@
       <c r="B48" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C48" s="10">
+      <c r="C48" s="8">
         <v>46016</v>
       </c>
       <c r="D48" s="2">
         <v>1.7</v>
       </c>
-      <c r="E48" s="10">
+      <c r="E48" s="8">
         <v>46016</v>
       </c>
       <c r="F48" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="G48" s="10">
+      <c r="G48" s="8">
         <v>46016</v>
       </c>
       <c r="H48" s="5" t="s">
@@ -1841,19 +1981,19 @@
       <c r="B49" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C49" s="10">
+      <c r="C49" s="8">
         <v>46017</v>
       </c>
       <c r="D49" s="2">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E49" s="10">
+      <c r="E49" s="8">
         <v>46017</v>
       </c>
       <c r="F49" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="G49" s="10">
+      <c r="G49" s="8">
         <v>46017</v>
       </c>
       <c r="H49" s="5" t="s">
